--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori4/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori4/42/correct_predictions_42.xlsx
@@ -1106,42 +1106,42 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Please check the Compass installation and interference</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
+          <t>Compass Error . Compass data error . Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1166,22 +1166,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1196,42 +1196,42 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Compass Error . Compass data error . Please contact DJI Support .</t>
+          <t>Compass Stuck . Restart Aircraft . Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Compass Stuck</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1256,22 +1256,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Compass Stuck</t>
+          <t>Restart Aircraft</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1286,12 +1286,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Restart Aircraft</t>
+          <t>Contact DJI Support if this persists</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1307,31 +1307,31 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Compass Stuck . Restart Aircraft . Contact DJI Support if this persists .</t>
+          <t>Extra payload detected . Max altitude and distance set . Fly with caution .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this persists</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>6-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1346,22 +1346,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1376,72 +1376,72 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Max altitude and distance set</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Extra payload detected . Max altitude and distance set . Fly with caution .</t>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Max altitude and distance set</t>
+          <t>Check the USB connection with aircraft</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
+          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Check the USB connection with aircraft</t>
+          <t>Aircraft may be in violation of local laws and regulations</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>5-14</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1466,22 +1466,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Aircraft may be in violation of local laws and regulations</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5-14</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1496,42 +1496,42 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>16-29</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+          <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>May violate local policies and regulations</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>16-29</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1556,12 +1556,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>May violate local policies and regulations</t>
+          <t>Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>12-18</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1586,52 +1586,52 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ensure you have obtained proper airspace authorization</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>12-18</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
+          <t>GPS signal weak . Hovering unstable . Fly with caution .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1646,22 +1646,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Hovering unstable</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1676,12 +1676,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Hovering unstable</t>
+          <t>GPS signal weak</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1697,16 +1697,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GPS signal weak . Hovering unstable . Fly with caution .</t>
+          <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GPS signal weak</t>
+          <t>No GPS signal</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1736,12 +1736,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>No GPS signal</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori4/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori4/42/correct_predictions_42.xlsx
@@ -1106,42 +1106,42 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Compass Error . Compass data error . Please contact DJI Support .</t>
+          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1166,22 +1166,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1196,42 +1196,42 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Compass Stuck . Restart Aircraft . Contact DJI Support if this persists .</t>
+          <t>Compass Error . Compass data error . Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Compass Stuck</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1256,22 +1256,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Restart Aircraft</t>
+          <t>Compass Stuck</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1286,12 +1286,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this persists</t>
+          <t>Restart Aircraft</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>6-11</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1307,31 +1307,31 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Extra payload detected . Max altitude and distance set . Fly with caution .</t>
+          <t>Compass Stuck . Restart Aircraft . Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Contact DJI Support if this persists</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1346,22 +1346,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1376,72 +1376,72 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Max altitude and distance set</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
+          <t>Extra payload detected . Max altitude and distance set . Fly with caution .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Check the USB connection with aircraft</t>
+          <t>Max altitude and distance set</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Aircraft may be in violation of local laws and regulations</t>
+          <t>Check the USB connection with aircraft</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5-14</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1466,22 +1466,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Aircraft may be in violation of local laws and regulations</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-14</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1496,42 +1496,42 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>16-29</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
+          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>May violate local policies and regulations</t>
+          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>16-29</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1556,12 +1556,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ensure you have obtained proper airspace authorization</t>
+          <t>May violate local policies and regulations</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12-18</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1586,52 +1586,52 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>12-18</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GPS signal weak . Hovering unstable . Fly with caution .</t>
+          <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1646,22 +1646,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Hovering unstable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1676,12 +1676,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>GPS signal weak</t>
+          <t>Hovering unstable</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1697,16 +1697,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>No GPS signal . Unable to hover . Fly with caution .</t>
+          <t>GPS signal weak . Hovering unstable . Fly with caution .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>No GPS signal</t>
+          <t>GPS signal weak</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1736,12 +1736,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>No GPS signal</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
